--- a/src/test/resources/TestData/Team11APISpark_TestData.xlsx
+++ b/src/test/resources/TestData/Team11APISpark_TestData.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\Desktop\API\Practice\API_Practice\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7BF700-FF04-4F0F-8242-FE651D860FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E84422D2-0A03-4420-ADAB-F20F64CBE8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team11APISpark_TestData" sheetId="1" r:id="rId1"/>
     <sheet name="PatientInfo" sheetId="2" r:id="rId2"/>
     <sheet name="Patient_Login_Post" sheetId="5" r:id="rId3"/>
-    <sheet name="DieticianRolePost" sheetId="3" r:id="rId4"/>
+    <sheet name="DieticianRole" sheetId="3" r:id="rId4"/>
     <sheet name="DieticianRolePut" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:Q24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>BaseUrl</t>
   </si>
@@ -131,13 +127,34 @@
     <t>Password</t>
   </si>
   <si>
-    <t>prajnam.us@gmail.com</t>
+    <t>abc@gmail</t>
+  </si>
+  <si>
+    <t>DieticianEmail</t>
+  </si>
+  <si>
+    <t>DieticianPassword</t>
+  </si>
+  <si>
+    <t>prajnam.us@gmailcom</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>abc1@gmail.com</t>
+  </si>
+  <si>
+    <t>Veg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -984,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1121,14 +1138,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1156,17 +1176,46 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>9872345674</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1">
+        <v>29226</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0DD06A9F-91A1-473E-BBF5-B01AD1C7397C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,26 +1238,48 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{043ED862-EFFA-4A4F-BCFC-475ED043C5F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
